--- a/assets/excel/plantilla_diccionario.xlsx
+++ b/assets/excel/plantilla_diccionario.xlsx
@@ -12,62 +12,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Nombre de la base y/o conjunto de datos
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
       <t>(Repetir el nombre en todas las filas</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="9.0"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Nombre de la tabla de la base de datos / hoja del conjunto de datos
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t xml:space="preserve">(En caso de que no existan numerosas tablas u hojas escribir </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
         <i/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>“No aplica"</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Etiqueta</t>
+    <t>Etiqueta del campo o variable (atributo)</t>
   </si>
   <si>
     <t>Descripción</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Tipo de variable,  campo o atributo
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">Tipo de dato
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
         <i/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>(Seleccione de acuerdo a las opciones)</t>
@@ -79,42 +117,72 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Clasificación de la información
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
         <i/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>(Seleccione de acuerdo a las opciones</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
         <i/>
+        <color theme="1"/>
+        <sz val="9.0"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Especificaciones y/o reglas de cálculo
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>(En caso de que este elemento no aplique a su base de datos y/o conjunto de datos, registre “No Aplica”)</t>
@@ -122,30 +190,67 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Obligatoriedad del campo
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>(Seleccione de acuerdo a las opciones)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Registro de campos vacíos 
+    <r>
+      <rPr>
+        <rFont val="Muli"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">Registro de campos vacíos 
 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Muli"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>(Si este campo no tiene campos vacíos anotar "SIN DATOS VACÍOS")</t>
+    </r>
   </si>
   <si>
     <t>Tipo</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
       <t xml:space="preserve">Clasificación de la información
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
       <t>(reservada, confidencial, pública)</t>
     </r>
   </si>
@@ -156,7 +261,7 @@
     <t>Obligatoriedad del campo</t>
   </si>
   <si>
-    <t>Texto</t>
+    <t>Alfanumérico</t>
   </si>
   <si>
     <t>Reservada</t>
@@ -168,7 +273,7 @@
     <t xml:space="preserve">Obligatorio  </t>
   </si>
   <si>
-    <t>Alfanumérico</t>
+    <t>Número entero</t>
   </si>
   <si>
     <t>Confidencial</t>
@@ -180,15 +285,12 @@
     <t xml:space="preserve">Opcional </t>
   </si>
   <si>
-    <t>Número entero</t>
+    <t>Número con decimales</t>
   </si>
   <si>
     <t>Pública</t>
   </si>
   <si>
-    <t>Número con decimales</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -205,9 +307,6 @@
   </si>
   <si>
     <t>Geometry</t>
-  </si>
-  <si>
-    <t>Proyección</t>
   </si>
 </sst>
 </file>
@@ -972,7 +1071,7 @@
   </conditionalFormatting>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" sqref="E2:E25">
-      <formula1>Validadores!$A$2:$A$12</formula1>
+      <formula1>Validadores!$A$2:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G2:G25">
       <formula1>Validadores!$B$2:$B$4</formula1>
@@ -1098,22 +1197,6 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11">
-      <c r="A11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/assets/excel/plantilla_diccionario.xlsx
+++ b/assets/excel/plantilla_diccionario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -61,17 +61,16 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">(En caso de que no existan numerosas tablas u hojas escribir </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Muli, Arial"/>
-        <b val="0"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>“No aplica"</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>En caso de que el conjunto de datos no tenga más de una hoja, toma el valor "No aplica"</t>
     </r>
     <r>
       <rPr>
@@ -191,33 +190,12 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Muli, Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
-      </rPr>
-      <t xml:space="preserve">Obligatoriedad del campo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Muli, Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>(Seleccione de acuerdo a las opciones)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Muli"/>
         <b/>
         <color theme="1"/>
         <sz val="9.0"/>
       </rPr>
-      <t xml:space="preserve">Registro de campos vacíos 
+      <t xml:space="preserve">Codificación de valores faltantes
 </t>
     </r>
     <r>
@@ -227,7 +205,7 @@
         <color theme="1"/>
         <sz val="9.0"/>
       </rPr>
-      <t>(Si este campo no tiene campos vacíos anotar "SIN DATOS VACÍOS")</t>
+      <t>(Si este campo no tiene valores faltantes anotar "SIN VALORES FALTANTES")</t>
     </r>
   </si>
   <si>
@@ -739,8 +717,7 @@
     <col customWidth="1" min="6" max="6" width="21.13"/>
     <col customWidth="1" min="7" max="7" width="13.88"/>
     <col customWidth="1" min="8" max="8" width="19.75"/>
-    <col customWidth="1" min="9" max="9" width="16.75"/>
-    <col customWidth="1" min="10" max="10" width="20.25"/>
+    <col customWidth="1" min="9" max="9" width="20.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="89.25" customHeight="1">
@@ -768,11 +745,8 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -784,8 +758,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="5"/>
@@ -796,8 +769,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="5"/>
@@ -808,8 +780,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="5"/>
@@ -820,8 +791,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="5"/>
@@ -832,8 +802,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
@@ -844,8 +813,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="5"/>
@@ -856,8 +824,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
@@ -868,8 +835,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="5"/>
@@ -880,8 +846,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="5"/>
@@ -892,8 +857,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="5"/>
@@ -904,8 +868,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
@@ -916,8 +879,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="5"/>
@@ -928,8 +890,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="5"/>
@@ -940,8 +901,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
@@ -952,8 +912,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" s="5"/>
@@ -964,8 +923,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="5"/>
@@ -976,8 +934,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
@@ -988,8 +945,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="5"/>
@@ -1000,8 +956,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21">
       <c r="A21" s="5"/>
@@ -1012,8 +967,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="5"/>
@@ -1024,8 +978,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="5"/>
@@ -1036,8 +989,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
@@ -1048,8 +1000,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
@@ -1060,8 +1011,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E25">
@@ -1075,9 +1025,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G2:G25">
       <formula1>Validadores!$B$2:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I25">
-      <formula1>Validadores!$D$2:$D$3</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -1099,59 +1046,59 @@
   <sheetData>
     <row r="1" ht="64.5" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1159,7 +1106,7 @@
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1167,7 +1114,7 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1175,7 +1122,7 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1183,7 +1130,7 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1191,7 +1138,7 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
